--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.681070731791</v>
+        <v>1122.854674413861</v>
       </c>
       <c r="AB2" t="n">
-        <v>1436.219949635777</v>
+        <v>1536.339302385144</v>
       </c>
       <c r="AC2" t="n">
-        <v>1299.149133389897</v>
+        <v>1389.713235631259</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049681.070731791</v>
+        <v>1122854.674413861</v>
       </c>
       <c r="AE2" t="n">
-        <v>1436219.949635777</v>
+        <v>1536339.302385144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293399663508621e-06</v>
+        <v>2.393128008185695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1299149.133389897</v>
+        <v>1389713.235631259</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.9566933320732</v>
+        <v>544.5685035861937</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.5898278820358</v>
+        <v>745.1026512734335</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.8261671157786</v>
+        <v>673.9910999940353</v>
       </c>
       <c r="AD3" t="n">
-        <v>495956.6933320732</v>
+        <v>544568.5035861938</v>
       </c>
       <c r="AE3" t="n">
-        <v>678589.8278820359</v>
+        <v>745102.6512734335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03472597032003e-06</v>
+        <v>3.764775765710737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.469075520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>613826.1671157787</v>
+        <v>673991.0999940353</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.0404081423762</v>
+        <v>421.7125508379823</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.8292732043402</v>
+        <v>577.0057167012214</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.5494267792461</v>
+        <v>521.9371009318656</v>
       </c>
       <c r="AD4" t="n">
-        <v>385040.4081423762</v>
+        <v>421712.5508379823</v>
       </c>
       <c r="AE4" t="n">
-        <v>526829.2732043403</v>
+        <v>577005.7167012214</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327055021532438e-06</v>
+        <v>4.305661046417401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.529947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>476549.4267792461</v>
+        <v>521937.1009318656</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.7076892988927</v>
+        <v>382.2092397939068</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.0125120455978</v>
+        <v>522.9555437676321</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.8688617731954</v>
+        <v>473.0454006431639</v>
       </c>
       <c r="AD5" t="n">
-        <v>345707.6892988927</v>
+        <v>382209.2397939067</v>
       </c>
       <c r="AE5" t="n">
-        <v>473012.5120455978</v>
+        <v>522955.543767632</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.444696223872787e-06</v>
+        <v>4.523328070911299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.2158203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>427868.8617731954</v>
+        <v>473045.4006431639</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.7053368625454</v>
+        <v>383.2068873575593</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.3775374552915</v>
+        <v>524.3205691773258</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.1036110736132</v>
+        <v>474.2801499435816</v>
       </c>
       <c r="AD6" t="n">
-        <v>346705.3368625455</v>
+        <v>383206.8873575593</v>
       </c>
       <c r="AE6" t="n">
-        <v>474377.5374552915</v>
+        <v>524320.5691773257</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445443152141615e-06</v>
+        <v>4.524710083765229e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.214192708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>429103.6110736132</v>
+        <v>474280.1499435817</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.4369152496748</v>
+        <v>778.2554759132611</v>
       </c>
       <c r="AB2" t="n">
-        <v>984.365326761258</v>
+        <v>1064.843476352935</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.4188815405761</v>
+        <v>963.2163094870156</v>
       </c>
       <c r="AD2" t="n">
-        <v>719436.9152496748</v>
+        <v>778255.4759132611</v>
       </c>
       <c r="AE2" t="n">
-        <v>984365.326761258</v>
+        <v>1064843.476352935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.595984676197789e-06</v>
+        <v>3.042193104976234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>890418.8815405761</v>
+        <v>963216.3094870156</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.4497038799012</v>
+        <v>428.4192115561984</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.9163132217299</v>
+        <v>586.1820657728736</v>
       </c>
       <c r="AC3" t="n">
-        <v>472.1053528019934</v>
+        <v>530.2376721272062</v>
       </c>
       <c r="AD3" t="n">
-        <v>381449.7038799011</v>
+        <v>428419.2115561984</v>
       </c>
       <c r="AE3" t="n">
-        <v>521916.3132217298</v>
+        <v>586182.0657728736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292465280171539e-06</v>
+        <v>4.36979262567241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.857096354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>472105.3528019934</v>
+        <v>530237.6721272062</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.2438422122621</v>
+        <v>358.4497272643932</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.2764854266799</v>
+        <v>490.4467305290367</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.0662383965027</v>
+        <v>443.6391829136542</v>
       </c>
       <c r="AD4" t="n">
-        <v>323243.8422122621</v>
+        <v>358449.7272643932</v>
       </c>
       <c r="AE4" t="n">
-        <v>442276.48542668</v>
+        <v>490446.7305290367</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492494586901485e-06</v>
+        <v>4.75107935530239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.306966145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>400066.2383965027</v>
+        <v>443639.1829136543</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.5922350200801</v>
+        <v>359.7981200722112</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.121415953229</v>
+        <v>492.2916610555857</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.7350913429741</v>
+        <v>445.3080358601256</v>
       </c>
       <c r="AD5" t="n">
-        <v>324592.2350200801</v>
+        <v>359798.1200722113</v>
       </c>
       <c r="AE5" t="n">
-        <v>444121.4159532289</v>
+        <v>492291.6610555857</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.49239800104599e-06</v>
+        <v>4.75089524775549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.306966145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>401735.0913429741</v>
+        <v>445308.0358601256</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.4129151711045</v>
+        <v>320.1813442812965</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.9368332480535</v>
+        <v>438.0862406496595</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.5807565310618</v>
+        <v>396.2759046999557</v>
       </c>
       <c r="AD2" t="n">
-        <v>278412.9151711045</v>
+        <v>320181.3442812965</v>
       </c>
       <c r="AE2" t="n">
-        <v>380936.8332480534</v>
+        <v>438086.2406496595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511498170156085e-06</v>
+        <v>5.348833835991919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.984049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>344580.7565310618</v>
+        <v>396275.9046999557</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.2993821011742</v>
+        <v>322.0678112113661</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.517980526822</v>
+        <v>440.6673879284281</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.9155627362076</v>
+        <v>398.6107109051015</v>
       </c>
       <c r="AD3" t="n">
-        <v>280299.3821011742</v>
+        <v>322067.8112113661</v>
       </c>
       <c r="AE3" t="n">
-        <v>383517.980526822</v>
+        <v>440667.3879284281</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.511282618667422e-06</v>
+        <v>5.348374767731525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.985677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>346915.5627362076</v>
+        <v>398610.7109051016</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.8945369727617</v>
+        <v>430.781721157563</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.3661740684647</v>
+        <v>589.4145556360284</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.8442093854613</v>
+        <v>533.1616576946495</v>
       </c>
       <c r="AD2" t="n">
-        <v>386894.5369727617</v>
+        <v>430781.721157563</v>
       </c>
       <c r="AE2" t="n">
-        <v>529366.1740684647</v>
+        <v>589414.5556360284</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.201408404793491e-06</v>
+        <v>4.469620158317876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>478844.2093854613</v>
+        <v>533161.6576946495</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.0994799890402</v>
+        <v>335.9013233192699</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.6633950405781</v>
+        <v>459.5950094859441</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.5200815490025</v>
+        <v>415.7319068262519</v>
       </c>
       <c r="AD3" t="n">
-        <v>292099.4799890402</v>
+        <v>335901.3233192699</v>
       </c>
       <c r="AE3" t="n">
-        <v>399663.3950405781</v>
+        <v>459595.0094859441</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538976252542724e-06</v>
+        <v>5.154999597141947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.609700520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>361520.0815490025</v>
+        <v>415731.9068262519</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.20427665671</v>
+        <v>324.2196376440917</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.8608295294954</v>
+        <v>443.6116117855656</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.7484977288016</v>
+        <v>401.2739421695578</v>
       </c>
       <c r="AD2" t="n">
-        <v>284204.27665671</v>
+        <v>324219.6376440917</v>
       </c>
       <c r="AE2" t="n">
-        <v>388860.8295294954</v>
+        <v>443611.6117855656</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429083618614232e-06</v>
+        <v>5.409094760225333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>351748.4977288016</v>
+        <v>401273.9421695578</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.0439250546849</v>
+        <v>856.3448253466235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.550661356107</v>
+        <v>1171.688769306618</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.4700368337459</v>
+        <v>1059.86443763951</v>
       </c>
       <c r="AD2" t="n">
-        <v>797043.9250546849</v>
+        <v>856344.8253466234</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090550.661356107</v>
+        <v>1171688.769306618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515506762268407e-06</v>
+        <v>2.865465125649318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>986470.0368337459</v>
+        <v>1059864.43763951</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.4144444440755</v>
+        <v>452.8380248998712</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.70592851137</v>
+        <v>619.5929634717006</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.7655732289044</v>
+        <v>560.4598806421467</v>
       </c>
       <c r="AD3" t="n">
-        <v>405414.4444440755</v>
+        <v>452838.0248998712</v>
       </c>
       <c r="AE3" t="n">
-        <v>554705.92851137</v>
+        <v>619592.9634717007</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2258317596027e-06</v>
+        <v>4.208521823523606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.998697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>501765.5732289044</v>
+        <v>560459.8806421467</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.5553619719848</v>
+        <v>366.1018016087398</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.2804293234193</v>
+        <v>500.9166362326662</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.1154199283607</v>
+        <v>453.1098555115343</v>
       </c>
       <c r="AD4" t="n">
-        <v>330555.3619719849</v>
+        <v>366101.8016087398</v>
       </c>
       <c r="AE4" t="n">
-        <v>452280.4293234193</v>
+        <v>500916.6362326662</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474890598447038e-06</v>
+        <v>4.679433227359867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.295572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>409115.4199283607</v>
+        <v>453109.8555115343</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.9574511480977</v>
+        <v>365.5038907848527</v>
       </c>
       <c r="AB5" t="n">
-        <v>451.462341356213</v>
+        <v>500.09854826546</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.375409128551</v>
+        <v>452.3698447117246</v>
       </c>
       <c r="AD5" t="n">
-        <v>329957.4511480978</v>
+        <v>365503.8907848527</v>
       </c>
       <c r="AE5" t="n">
-        <v>451462.341356213</v>
+        <v>500098.54826546</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480729410579822e-06</v>
+        <v>4.69047304120845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.279296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>408375.409128551</v>
+        <v>452369.8447117246</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.9405658425093</v>
+        <v>333.76782905736</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.8682528762925</v>
+        <v>456.6758685136748</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.659774005308</v>
+        <v>413.0913645713359</v>
       </c>
       <c r="AD2" t="n">
-        <v>284940.5658425093</v>
+        <v>333767.82905736</v>
       </c>
       <c r="AE2" t="n">
-        <v>389868.2528762925</v>
+        <v>456675.8685136748</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.342003422415046e-06</v>
+        <v>5.369199170362624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.960611979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>352659.7740053079</v>
+        <v>413091.364571336</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.958438365023</v>
+        <v>594.8495508437363</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.0584684223314</v>
+        <v>813.8993983744525</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.8100812606519</v>
+        <v>736.2219821085739</v>
       </c>
       <c r="AD2" t="n">
-        <v>537958.438365023</v>
+        <v>594849.5508437363</v>
       </c>
       <c r="AE2" t="n">
-        <v>736058.4684223314</v>
+        <v>813899.3983744525</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.866870641793786e-06</v>
+        <v>3.659040657886427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.675130208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>665810.0812606519</v>
+        <v>736221.9821085739</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.5296942750346</v>
+        <v>344.6303149289849</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.8804273103453</v>
+        <v>471.5384009022872</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.3304356512702</v>
+        <v>426.5354377284744</v>
       </c>
       <c r="AD3" t="n">
-        <v>310529.6942750346</v>
+        <v>344630.314928985</v>
       </c>
       <c r="AE3" t="n">
-        <v>424880.4273103453</v>
+        <v>471538.4009022872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510224517017498e-06</v>
+        <v>4.920005362216691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>384330.4356512702</v>
+        <v>426535.4377284744</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.2720025838399</v>
+        <v>342.3726232377903</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.7913539361248</v>
+        <v>468.4493275280669</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.5361791043437</v>
+        <v>423.7411811815479</v>
       </c>
       <c r="AD4" t="n">
-        <v>308272.0025838399</v>
+        <v>342372.6232377903</v>
       </c>
       <c r="AE4" t="n">
-        <v>421791.3539361248</v>
+        <v>468449.3275280669</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523360280595151e-06</v>
+        <v>4.945751277293503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.419270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>381536.1791043436</v>
+        <v>423741.1811815479</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.2027234839107</v>
+        <v>717.2615176133415</v>
       </c>
       <c r="AB2" t="n">
-        <v>901.950248242345</v>
+        <v>981.3888517434565</v>
       </c>
       <c r="AC2" t="n">
-        <v>815.869382445219</v>
+        <v>887.7264771209644</v>
       </c>
       <c r="AD2" t="n">
-        <v>659202.7234839108</v>
+        <v>717261.5176133416</v>
       </c>
       <c r="AE2" t="n">
-        <v>901950.2482423449</v>
+        <v>981388.8517434564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.679786288238121e-06</v>
+        <v>3.229730272216533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.446614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>815869.382445219</v>
+        <v>887726.4771209644</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.5025922094501</v>
+        <v>403.0007604188968</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.7825744453276</v>
+        <v>551.4034195438965</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.2292901474077</v>
+        <v>498.7782510821861</v>
       </c>
       <c r="AD3" t="n">
-        <v>356502.5922094501</v>
+        <v>403000.7604188968</v>
       </c>
       <c r="AE3" t="n">
-        <v>487782.5744453276</v>
+        <v>551403.4195438965</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3648442439591e-06</v>
+        <v>4.546893314507765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.710611979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>441229.2901474077</v>
+        <v>498778.2510821861</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.7992087675668</v>
+        <v>353.65158921956</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.1951418642593</v>
+        <v>483.881706377185</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.5652897284602</v>
+        <v>437.700715452786</v>
       </c>
       <c r="AD4" t="n">
-        <v>318799.2087675668</v>
+        <v>353651.58921956</v>
       </c>
       <c r="AE4" t="n">
-        <v>436195.1418642593</v>
+        <v>483881.706377185</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500763798510061e-06</v>
+        <v>4.808226260843374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.346028645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>394565.2897284602</v>
+        <v>437700.715452786</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>962.2389253256597</v>
+        <v>1034.625465761285</v>
       </c>
       <c r="AB2" t="n">
-        <v>1316.577748615913</v>
+        <v>1415.620206708716</v>
       </c>
       <c r="AC2" t="n">
-        <v>1190.925416116485</v>
+        <v>1280.515401015874</v>
       </c>
       <c r="AD2" t="n">
-        <v>962238.9253256597</v>
+        <v>1034625.465761285</v>
       </c>
       <c r="AE2" t="n">
-        <v>1316577.748615913</v>
+        <v>1415620.206708716</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.363782861220064e-06</v>
+        <v>2.540624032399522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23209635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1190925.416116485</v>
+        <v>1280515.401015874</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.8057784013788</v>
+        <v>517.0066079582647</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.4407482600304</v>
+        <v>707.3912497302831</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.2225435138369</v>
+        <v>639.8788216858785</v>
       </c>
       <c r="AD3" t="n">
-        <v>468805.7784013788</v>
+        <v>517006.6079582647</v>
       </c>
       <c r="AE3" t="n">
-        <v>641440.7482600304</v>
+        <v>707391.2497302832</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.097106721176364e-06</v>
+        <v>3.906750763505524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>580222.5435138368</v>
+        <v>639878.8216858786</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.5123166910879</v>
+        <v>399.705631663176</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.373588728323</v>
+        <v>546.8948790094984</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.9049514883072</v>
+        <v>494.6999993286146</v>
       </c>
       <c r="AD4" t="n">
-        <v>363512.3166910879</v>
+        <v>399705.631663176</v>
       </c>
       <c r="AE4" t="n">
-        <v>497373.588728323</v>
+        <v>546894.8790094984</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386220029413756e-06</v>
+        <v>4.445346928541155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.419270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>449904.9514883072</v>
+        <v>494699.9993286146</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.6283564356024</v>
+        <v>378.8216714076905</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.7992329714659</v>
+        <v>518.3205232526414</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.0576921405243</v>
+        <v>468.8527399808318</v>
       </c>
       <c r="AD5" t="n">
-        <v>342628.3564356024</v>
+        <v>378821.6714076904</v>
       </c>
       <c r="AE5" t="n">
-        <v>468799.2329714659</v>
+        <v>518320.5232526413</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447675429895206e-06</v>
+        <v>4.559833678465721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.258138020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>424057.6921405243</v>
+        <v>468852.7399808317</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.3739606460095</v>
+        <v>486.8056963824114</v>
       </c>
       <c r="AB2" t="n">
-        <v>590.2248838318829</v>
+        <v>666.0690301420158</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.8946493047945</v>
+        <v>602.5003367390162</v>
       </c>
       <c r="AD2" t="n">
-        <v>431373.9606460095</v>
+        <v>486805.6963824115</v>
       </c>
       <c r="AE2" t="n">
-        <v>590224.883831883</v>
+        <v>666069.0301420158</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079372363376671e-06</v>
+        <v>4.168096402374525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>533894.6493047945</v>
+        <v>602500.3367390162</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.4546868469996</v>
+        <v>329.9014781688984</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.6223812018042</v>
+        <v>451.3857566567188</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.9103504344908</v>
+        <v>408.3061335652892</v>
       </c>
       <c r="AD3" t="n">
-        <v>296454.6868469996</v>
+        <v>329901.4781688984</v>
       </c>
       <c r="AE3" t="n">
-        <v>405622.3812018042</v>
+        <v>451385.7566567188</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53784632666733e-06</v>
+        <v>5.08710624911068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.529947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>366910.3504344908</v>
+        <v>408306.1335652892</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.7967960363181</v>
+        <v>337.2924512092347</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.3539818536493</v>
+        <v>461.498412037225</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.8584439364054</v>
+        <v>417.4536513094807</v>
       </c>
       <c r="AD2" t="n">
-        <v>294796.7960363181</v>
+        <v>337292.4512092347</v>
       </c>
       <c r="AE2" t="n">
-        <v>403353.9818536493</v>
+        <v>461498.412037225</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467750916785787e-06</v>
+        <v>5.16268924591772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.995442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>364858.4439364054</v>
+        <v>417453.6513094807</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.9374354832464</v>
+        <v>326.433090656163</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.4957256637609</v>
+        <v>446.6401558473364</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.4182388635862</v>
+        <v>404.0134462366617</v>
       </c>
       <c r="AD3" t="n">
-        <v>283937.4354832464</v>
+        <v>326433.0906561629</v>
       </c>
       <c r="AE3" t="n">
-        <v>388495.7256637609</v>
+        <v>446640.1558473364</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526931121855688e-06</v>
+        <v>5.286497935930703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8310546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>351418.2388635862</v>
+        <v>404013.4462366616</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.337227228364</v>
+        <v>317.1334723455971</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.7792266007705</v>
+        <v>433.9160078046158</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.3883670795903</v>
+        <v>392.5036730246843</v>
       </c>
       <c r="AD2" t="n">
-        <v>286337.227228364</v>
+        <v>317133.4723455971</v>
       </c>
       <c r="AE2" t="n">
-        <v>391779.2266007705</v>
+        <v>433916.0078046158</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478499801445011e-06</v>
+        <v>5.387901093960229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.203776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>354388.3670795903</v>
+        <v>392503.6730246843</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.9683191851538</v>
+        <v>348.4448650357851</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.7981320942719</v>
+        <v>476.7576366444849</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.4966963295021</v>
+        <v>431.25655693668</v>
       </c>
       <c r="AD2" t="n">
-        <v>300968.3191851538</v>
+        <v>348444.8650357851</v>
       </c>
       <c r="AE2" t="n">
-        <v>411798.1320942719</v>
+        <v>476757.6366444849</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.183870399134255e-06</v>
+        <v>5.194394629180707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>372496.6963295022</v>
+        <v>431256.55693668</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.4441147591534</v>
+        <v>648.5372294723189</v>
       </c>
       <c r="AB2" t="n">
-        <v>824.2906157720396</v>
+        <v>887.3572488072972</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.6214763019007</v>
+        <v>802.6691183948487</v>
       </c>
       <c r="AD2" t="n">
-        <v>602444.1147591535</v>
+        <v>648537.2294723189</v>
       </c>
       <c r="AE2" t="n">
-        <v>824290.6157720396</v>
+        <v>887357.2488072972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770314383323076e-06</v>
+        <v>3.435433490551044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.054361979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>745621.4763019007</v>
+        <v>802669.1183948488</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.8391776326896</v>
+        <v>364.494287390722</v>
       </c>
       <c r="AB3" t="n">
-        <v>451.3005143145723</v>
+        <v>498.7171643610521</v>
       </c>
       <c r="AC3" t="n">
-        <v>408.2290266326387</v>
+        <v>451.1202981483688</v>
       </c>
       <c r="AD3" t="n">
-        <v>329839.1776326896</v>
+        <v>364494.287390722</v>
       </c>
       <c r="AE3" t="n">
-        <v>451300.5143145723</v>
+        <v>498717.1643610521</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449606179293626e-06</v>
+        <v>4.753652337845981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.54296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>408229.0266326388</v>
+        <v>451120.2981483688</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.4731055688512</v>
+        <v>347.9576231262913</v>
       </c>
       <c r="AB4" t="n">
-        <v>428.9077324966867</v>
+        <v>476.0909707683196</v>
       </c>
       <c r="AC4" t="n">
-        <v>387.9733804829856</v>
+        <v>430.6535167160645</v>
       </c>
       <c r="AD4" t="n">
-        <v>313473.1055688512</v>
+        <v>347957.6231262913</v>
       </c>
       <c r="AE4" t="n">
-        <v>428907.7324966867</v>
+        <v>476090.9707683196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512237316179284e-06</v>
+        <v>4.875192956413622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>387973.3804829856</v>
+        <v>430653.5167160645</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.8195210274326</v>
+        <v>941.6551643976077</v>
       </c>
       <c r="AB2" t="n">
-        <v>1190.12544239872</v>
+        <v>1288.41413882271</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.541540527734</v>
+        <v>1165.449701714071</v>
       </c>
       <c r="AD2" t="n">
-        <v>869819.5210274326</v>
+        <v>941655.1643976077</v>
       </c>
       <c r="AE2" t="n">
-        <v>1190125.44239872</v>
+        <v>1288414.13882271</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.698330990114121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74055989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076541.540527734</v>
+        <v>1165449.701714071</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.4680356921119</v>
+        <v>479.4286173130363</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.7725308628951</v>
+        <v>655.9753851055376</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.8630121279353</v>
+        <v>593.3700150182997</v>
       </c>
       <c r="AD3" t="n">
-        <v>443468.0356921119</v>
+        <v>479428.6173130363</v>
       </c>
       <c r="AE3" t="n">
-        <v>606772.5308628951</v>
+        <v>655975.3851055376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.158581448131919e-06</v>
+        <v>4.050345455465614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.154947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>548863.0121279353</v>
+        <v>593370.0150182997</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.1403719763627</v>
+        <v>378.0156127427155</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.1315511059792</v>
+        <v>517.217638226424</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.4537328951822</v>
+        <v>467.8551127536078</v>
       </c>
       <c r="AD4" t="n">
-        <v>342140.3719763627</v>
+        <v>378015.6127427155</v>
       </c>
       <c r="AE4" t="n">
-        <v>468131.5511059791</v>
+        <v>517217.638226424</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446873110303843e-06</v>
+        <v>4.591293690120933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.311848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>423453.7328951822</v>
+        <v>467855.1127536078</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.0079668493598</v>
+        <v>371.8832076157126</v>
       </c>
       <c r="AB5" t="n">
-        <v>459.7409238685936</v>
+        <v>508.8270109890385</v>
       </c>
       <c r="AC5" t="n">
-        <v>415.8638953450135</v>
+        <v>460.265275203439</v>
       </c>
       <c r="AD5" t="n">
-        <v>336007.9668493599</v>
+        <v>371883.2076157127</v>
       </c>
       <c r="AE5" t="n">
-        <v>459740.9238685936</v>
+        <v>508827.0109890385</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465567467594122e-06</v>
+        <v>4.626371636871129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.2646484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>415863.8953450135</v>
+        <v>460265.2752034391</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.3436408982673</v>
+        <v>383.2299465690059</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.568452028089</v>
+        <v>524.3521198077275</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.5170067819186</v>
+        <v>474.3086894260995</v>
       </c>
       <c r="AD2" t="n">
-        <v>337343.6408982673</v>
+        <v>383229.9465690059</v>
       </c>
       <c r="AE2" t="n">
-        <v>461568.452028089</v>
+        <v>524352.1198077275</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.885721554086556e-06</v>
+        <v>4.716046500244884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>417517.0067819186</v>
+        <v>474308.6894260995</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.6904235657054</v>
+        <v>388.775619262485</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.9888883077406</v>
+        <v>531.9399538447576</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.847492651723</v>
+        <v>481.1723512322275</v>
       </c>
       <c r="AD2" t="n">
-        <v>345690.4235657054</v>
+        <v>388775.619262485</v>
       </c>
       <c r="AE2" t="n">
-        <v>472988.8883077406</v>
+        <v>531939.9538447576</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.328523719066617e-06</v>
+        <v>4.795090376512004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>427847.492651723</v>
+        <v>481172.3512322275</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.4779240724549</v>
+        <v>330.6483711152549</v>
       </c>
       <c r="AB3" t="n">
-        <v>393.3399783468487</v>
+        <v>452.4076885365151</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.8001628695516</v>
+        <v>409.2305337007683</v>
       </c>
       <c r="AD3" t="n">
-        <v>287477.9240724549</v>
+        <v>330648.3711152549</v>
       </c>
       <c r="AE3" t="n">
-        <v>393339.9783468487</v>
+        <v>452407.6885365151</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538487998761627e-06</v>
+        <v>5.227466344483846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.700846354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>355800.1628695516</v>
+        <v>409230.5337007683</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.96171887469</v>
+        <v>533.9216968437636</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.0189952329504</v>
+        <v>730.5352205844771</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.1687613019741</v>
+        <v>660.8139644445155</v>
       </c>
       <c r="AD2" t="n">
-        <v>488961.7188746899</v>
+        <v>533921.6968437636</v>
       </c>
       <c r="AE2" t="n">
-        <v>669018.9952329504</v>
+        <v>730535.2205844771</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.969383513342635e-06</v>
+        <v>3.901711326641473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3154296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>605168.7613019741</v>
+        <v>660813.9644445155</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.3996056374289</v>
+        <v>335.098276277729</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.3882372452902</v>
+        <v>458.4962450957727</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.030482673125</v>
+        <v>414.7380069673529</v>
       </c>
       <c r="AD3" t="n">
-        <v>301399.6056374289</v>
+        <v>335098.276277729</v>
       </c>
       <c r="AE3" t="n">
-        <v>412388.2372452902</v>
+        <v>458496.2450957727</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.532165139651922e-06</v>
+        <v>5.016685343088732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.468098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>373030.482673125</v>
+        <v>414738.0069673529</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.9444990871627</v>
+        <v>336.6431697274627</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.5020286191046</v>
+        <v>460.6100364695872</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.9425367649475</v>
+        <v>416.6500610591754</v>
       </c>
       <c r="AD4" t="n">
-        <v>302944.4990871627</v>
+        <v>336643.1697274628</v>
       </c>
       <c r="AE4" t="n">
-        <v>414502.0286191046</v>
+        <v>460610.0364695872</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531863272160606e-06</v>
+        <v>5.016087288011073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.468098958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>374942.5367649475</v>
+        <v>416650.0610591754</v>
       </c>
     </row>
   </sheetData>
